--- a/similarities/split_global/harmonic_similarity_timestamps_110.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_110.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,754 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>schubert-winterreise_15</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['A:min', 'D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:07.340000', '0:00:09.640000')]</t>
+          <t>('0:00:01.640000', '0:00:08.800000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:42.150000', '0:01:07.840000')]</t>
+          <t>('0:00:10.160000', '0:00:25.400000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=7.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=1.64</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=10.16</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>jaah_62</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D:7', 'G:min7', 'C:7']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D:7', 'G:min7', 'C:7']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+          <t>('0:00:29.420000', '0:00:30.520000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:00:20.060000', '0:00:22.100000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-62#t=29.42</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=20.06</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>isophonics_58</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F', 'C', 'G', 'F', 'C']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['A', 'E', 'B', 'A', 'E']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:23.460000', '0:01:30.900000')]</t>
+          <t>('0:00:41.895260', '0:00:59.802639')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:17.160000', '0:00:19.520000')]</t>
+          <t>('0:00:23.861000', '0:00:54.729000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=83.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=41.89526</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=17.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=23.861</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:07.140000', '0:00:14.340000'), ('0:00:16.580000', '0:00:22.660000')]</t>
+          <t>('0:00:44.200000', '0:00:59.980000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:13.500000', '0:00:21.900000'), ('0:01:23.100000', '0:01:30.020000')]</t>
+          <t>('0:01:04.080000', '0:01:13.880000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=7.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=16.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=44.2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=83.1']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>isophonics_1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>schubert-winterreise_118</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['Ab/5', 'Eb', 'Ab/5', 'Eb']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:min', 'F:min', 'C:min']]</t>
+          <t>['F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:27.320000', '0:01:41.320000')]</t>
+          <t>('0:00:18.978000', '0:00:25.693000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:09.060000', '0:00:17.506000')]</t>
+          <t>('0:00:29.340000', '0:00:32.080000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=87.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=18.978</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=9.06']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=29.34</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:17.040000', '0:00:24.520000')]</t>
+          <t>('0:00:56.720000', '0:00:58.880000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>schubert-winterreise_2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:23.400000', '0:00:31.320000')]</t>
+          <t>('0:00:07.900000', '0:00:21.560000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:02.352018', '0:00:08.679455')]</t>
+          <t>('0:00:20.560000', '0:00:30.380000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=23.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=7.9</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=2.352018']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'A/3']]</t>
+          <t>['G:min', 'C:min', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D#:7/C#', 'G#:maj/C', 'D#:maj/A#']]</t>
+          <t>['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:38.689000', '0:00:45.633000')]</t>
+          <t>('0:00:11.020000', '0:00:28.300000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:03.460000', '0:01:05.780000')]</t>
+          <t>('0:00:00.380000', '0:00:07.500000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=38.689']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=11.02</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=63.46']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=0.38</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>isophonics_15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['F', 'C', 'F']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:59.500000', '0:01:08.120000')]</t>
+          <t>('0:02:20.580000', '0:02:23.320000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:00:33.724965', '0:00:54.715804')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=140.58</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=33.724965</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_67</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Ab', 'Bb', 'Eb']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'C']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:07.043000', '0:00:10.286000')]</t>
+          <t>('0:00:18.060000', '0:00:20.600000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:37.773990', '0:01:42.557301')]</t>
+          <t>('0:00:49.560000', '0:00:55.720000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.043']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=18.06</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-67#t=97.77399']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>isophonics_274</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['G:maj', 'C:maj', 'A:min', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['Ab', 'Db', 'Bb:min', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:00:26.424000', '0:00:33.079000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:18.720000')]</t>
+          <t>('0:00:23.946145', '0:00:28.787505')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=26.424</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=23.946145</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['A', 'D', 'A/3']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:01:09.360000', '0:01:13.200000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:33.698526', '0:00:42.916848')]</t>
+          <t>('0:00:13.527000', '0:00:17.058000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=33.698526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>schubert-winterreise_62</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C', 'F:min', 'C', 'F:min']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:10.598321', '0:00:14.743083')]</t>
+          <t>('0:00:47.580000', '0:00:50.040000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:14.520000', '0:01:17.020000')]</t>
+          <t>('0:00:40.120000', '0:00:47.880000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=10.598321']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=74.52']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=40.12</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_111</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'G:7', 'C']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:43.380000', '0:01:57.340000')]</t>
+          <t>('0:01:00.760000', '0:01:04.360000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:12.272131', '0:01:19.249727')]</t>
+          <t>('0:00:55.180000', '0:01:02.060000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=103.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-111#t=72.272131']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C', 'C:min', 'G']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:06.480000', '0:00:13.420000')]</t>
+          <t>('0:00:00.243000', '0:00:09.120000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:24.911369', '0:00:31.761256')]</t>
+          <t>('0:00:16.920000', '0:00:23.900000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=6.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-49#t=24.911369']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
